--- a/data/trans_bre/P69_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,09</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,0</t>
+          <t>-6,33; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,79</t>
+          <t>0,0; 10,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,0</t>
+          <t>-6,33; 0,0</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,38</t>
+          <t>0,0; 16,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,09</t>
+          <t>0,0; 11,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,18</t>
+          <t>0,0; 19,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,22</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,04</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 5,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,0</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 6,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,0</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 1,42</t>
+          <t>-4,29; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,46</t>
+          <t>-4,3; 1,88</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,2</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 2,85</t>
+          <t>-9,23; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,94</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 2,93</t>
+          <t>-9,27; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1268,27 +1268,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-1,03; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,02</t>
+          <t>-1,48; 1,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-1,03; 2,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,03</t>
+          <t>-1,48; 1,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
